--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt2-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt2-Fzd7.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.418393</v>
+        <v>1.01111</v>
       </c>
       <c r="N2">
-        <v>7.255179</v>
+        <v>3.03333</v>
       </c>
       <c r="O2">
-        <v>0.0919828589765645</v>
+        <v>0.04063212692754557</v>
       </c>
       <c r="P2">
-        <v>0.0919828589765645</v>
+        <v>0.04063212692754556</v>
       </c>
       <c r="Q2">
-        <v>2.014581828825</v>
+        <v>0.8422799077500001</v>
       </c>
       <c r="R2">
-        <v>18.131236459425</v>
+        <v>7.580519169750001</v>
       </c>
       <c r="S2">
-        <v>0.0919828589765645</v>
+        <v>0.04063212692754557</v>
       </c>
       <c r="T2">
-        <v>0.0919828589765645</v>
+        <v>0.04063212692754556</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>30.353977</v>
       </c>
       <c r="O3">
-        <v>0.3848348311969811</v>
+        <v>0.4065982422683317</v>
       </c>
       <c r="P3">
-        <v>0.3848348311969811</v>
+        <v>0.4065982422683317</v>
       </c>
       <c r="Q3">
         <v>8.428540563475002</v>
@@ -632,10 +632,10 @@
         <v>75.85686507127501</v>
       </c>
       <c r="S3">
-        <v>0.3848348311969811</v>
+        <v>0.4065982422683317</v>
       </c>
       <c r="T3">
-        <v>0.3848348311969811</v>
+        <v>0.4065982422683317</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>41.266181</v>
       </c>
       <c r="O4">
-        <v>0.5231823098264544</v>
+        <v>0.5527696308041227</v>
       </c>
       <c r="P4">
-        <v>0.5231823098264544</v>
+        <v>0.5527696308041226</v>
       </c>
       <c r="Q4">
         <v>11.458586809175</v>
@@ -694,10 +694,10 @@
         <v>103.127281282575</v>
       </c>
       <c r="S4">
-        <v>0.5231823098264544</v>
+        <v>0.5527696308041227</v>
       </c>
       <c r="T4">
-        <v>0.5231823098264544</v>
+        <v>0.5527696308041226</v>
       </c>
     </row>
   </sheetData>
